--- a/自动站处理数据/8月4-6摩擦速度.xlsx
+++ b/自动站处理数据/8月4-6摩擦速度.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10785\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3d\data\内蒙观测数据汇总\湍流观测数据\uat64mat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E09EC8-C1B9-48D9-B489-45C6E9F336F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6473EA81-B841-4048-ABF7-112A3313394E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -379,2881 +379,3457 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44047.506944444445</v>
+        <v>44047.006944444445</v>
       </c>
       <c r="B2">
-        <v>0.14344015001771901</v>
+        <v>1.3939243917704E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44047.513888888891</v>
+        <v>44047.013888888891</v>
       </c>
       <c r="B3">
-        <v>0.167025960725315</v>
+        <v>1.4003584456393801E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44047.520833333336</v>
+        <v>44047.020833333336</v>
       </c>
       <c r="B4">
-        <v>0.104483880150956</v>
+        <v>1.41083399360547E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44047.527777777781</v>
+        <v>44047.027777777781</v>
       </c>
       <c r="B5">
-        <v>3.5645505255050003E-2</v>
+        <v>1.51948717955676E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44047.534722222219</v>
+        <v>44047.034722222219</v>
       </c>
       <c r="B6">
-        <v>5.4113108313971599E-2</v>
+        <v>1.5696282634258499E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44047.541666666664</v>
+        <v>44047.041666666664</v>
       </c>
       <c r="B7">
-        <v>9.8739617312490896E-2</v>
+        <v>1.8698119028832599E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44047.548611111109</v>
+        <v>44047.048611111109</v>
       </c>
       <c r="B8">
-        <v>7.15439949750762E-2</v>
+        <v>1.6382777699997301E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44047.555555555555</v>
+        <v>44047.055555555555</v>
       </c>
       <c r="B9">
-        <v>5.99905430573726E-2</v>
+        <v>1.2224497936485799E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44047.5625</v>
+        <v>44047.0625</v>
       </c>
       <c r="B10">
-        <v>8.6781687908039695E-2</v>
+        <v>1.24775845969682E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44047.569444444445</v>
+        <v>44047.069444444445</v>
       </c>
       <c r="B11">
-        <v>0.11653585709591099</v>
+        <v>1.4538418783315601E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44047.576388888891</v>
+        <v>44047.076388888891</v>
       </c>
       <c r="B12">
-        <v>0.14534974052042501</v>
+        <v>1.5272731395790501E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44047.583333333336</v>
+        <v>44047.083333333336</v>
       </c>
       <c r="B13">
-        <v>0.10443348975034</v>
+        <v>1.5552978529591701E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44047.590277777781</v>
+        <v>44047.090277777781</v>
       </c>
       <c r="B14">
-        <v>6.4920834277191905E-2</v>
+        <v>1.26443741592472E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44047.597222222219</v>
+        <v>44047.097222222219</v>
       </c>
       <c r="B15">
-        <v>0.113196894769882</v>
+        <v>1.4219601808934199E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44047.604166666664</v>
+        <v>44047.104166666664</v>
       </c>
       <c r="B16">
-        <v>0.122076125798722</v>
+        <v>1.9060295466208101E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44047.611111111109</v>
+        <v>44047.111111111109</v>
       </c>
       <c r="B17">
-        <v>8.8595863831252494E-2</v>
+        <v>1.4240271033763701E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44047.618055555555</v>
+        <v>44047.118055555555</v>
       </c>
       <c r="B18">
-        <v>6.4156455441713195E-2</v>
+        <v>1.4639427546142199E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44047.625</v>
+        <v>44047.125</v>
       </c>
       <c r="B19">
-        <v>6.2246422289654199E-2</v>
+        <v>1.47213976287903E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44047.631944444445</v>
+        <v>44047.131944444445</v>
       </c>
       <c r="B20">
-        <v>5.36927544935413E-2</v>
+        <v>1.4734206509598301E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44047.638888888891</v>
+        <v>44047.138888888891</v>
       </c>
       <c r="B21">
-        <v>0.110896909953551</v>
+        <v>1.9096390788888098E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44047.645833333336</v>
+        <v>44047.145833333336</v>
       </c>
       <c r="B22">
-        <v>0.15509192992469001</v>
+        <v>1.6063113719518098E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44047.652777777781</v>
+        <v>44047.152777777781</v>
       </c>
       <c r="B23">
-        <v>6.02982976272173E-2</v>
+        <v>1.53988189255176E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44047.659722222219</v>
+        <v>44047.159722222219</v>
       </c>
       <c r="B24">
-        <v>4.9095645960649803E-2</v>
+        <v>1.4960146220266099E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44047.666666666664</v>
+        <v>44047.166666666664</v>
       </c>
       <c r="B25">
-        <v>2.47263627559853E-2</v>
+        <v>1.6868620081180601E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44047.673611111109</v>
+        <v>44047.173611111109</v>
       </c>
       <c r="B26">
-        <v>2.5085801663026201E-2</v>
+        <v>1.93805465336476E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44047.680555555555</v>
+        <v>44047.180555555555</v>
       </c>
       <c r="B27">
-        <v>3.5903506429470003E-2</v>
+        <v>2.0333083049822599E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44047.6875</v>
+        <v>44047.1875</v>
       </c>
       <c r="B28">
-        <v>5.2645606686145097E-2</v>
+        <v>1.7495696813694499E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44047.694444444445</v>
+        <v>44047.194444444445</v>
       </c>
       <c r="B29">
-        <v>4.0556191137042098E-2</v>
+        <v>1.7001051676433999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44047.701388888891</v>
+        <v>44047.201388888891</v>
       </c>
       <c r="B30">
-        <v>4.8555996504164603E-2</v>
+        <v>1.8412927980660701E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44047.708333333336</v>
+        <v>44047.208333333336</v>
       </c>
       <c r="B31">
-        <v>2.0640054064266299E-2</v>
+        <v>1.8824670056943299E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44047.715277777781</v>
+        <v>44047.215277777781</v>
       </c>
       <c r="B32">
-        <v>5.1263643115071998E-2</v>
+        <v>2.0358694511081299E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44047.722222222219</v>
+        <v>44047.222222222219</v>
       </c>
       <c r="B33">
-        <v>4.7068067717170002E-2</v>
+        <v>2.1351843068129601E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44047.729166666664</v>
+        <v>44047.229166666664</v>
       </c>
       <c r="B34">
-        <v>5.0930771945183098E-2</v>
+        <v>1.5060137797967801E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44047.736111111109</v>
+        <v>44047.236111111109</v>
       </c>
       <c r="B35">
-        <v>3.6687440666286597E-2</v>
+        <v>1.4808238870012E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44047.743055555555</v>
+        <v>44047.243055555555</v>
       </c>
       <c r="B36">
-        <v>3.2035063196877399E-2</v>
+        <v>1.49899401911423E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44047.75</v>
+        <v>44047.25</v>
       </c>
       <c r="B37">
-        <v>2.5539567315409299E-2</v>
+        <v>1.5493729470238001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44047.756944444445</v>
+        <v>44047.256944444445</v>
       </c>
       <c r="B38">
-        <v>1.8405383892039301E-2</v>
+        <v>1.66287036217991E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44047.763888888891</v>
+        <v>44047.263888888891</v>
       </c>
       <c r="B39">
-        <v>3.0710076812188101E-2</v>
+        <v>2.1492082146914199E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44047.770833333336</v>
+        <v>44047.270833333336</v>
       </c>
       <c r="B40">
-        <v>2.19164269761787E-2</v>
+        <v>3.9009096812375299E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44047.777777777781</v>
+        <v>44047.277777777781</v>
       </c>
       <c r="B41">
-        <v>2.2591141162475199E-2</v>
+        <v>3.8685928891351203E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44047.784722222219</v>
+        <v>44047.284722222219</v>
       </c>
       <c r="B42">
-        <v>2.4466822162762102E-2</v>
+        <v>4.6450412213303802E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44047.791666666664</v>
+        <v>44047.291666666664</v>
       </c>
       <c r="B43">
-        <v>1.92193649108254E-2</v>
+        <v>8.9779853565928797E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44047.798611111109</v>
+        <v>44047.298611111109</v>
       </c>
       <c r="B44">
-        <v>1.9286190259636501E-2</v>
+        <v>7.9014645122500199E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44047.805555555555</v>
+        <v>44047.305555555555</v>
       </c>
       <c r="B45">
-        <v>2.02709576241543E-2</v>
+        <v>7.1741527555404097E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44047.8125</v>
+        <v>44047.3125</v>
       </c>
       <c r="B46">
-        <v>1.93462717173788E-2</v>
+        <v>0.12026105760839299</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44047.819444444445</v>
+        <v>44047.319444444445</v>
       </c>
       <c r="B47">
-        <v>3.5808873576134097E-2</v>
+        <v>8.9265636206262905E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44047.826388888891</v>
+        <v>44047.326388888891</v>
       </c>
       <c r="B48">
-        <v>3.7333262295341001E-2</v>
+        <v>8.0877318018791597E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44047.833333333336</v>
+        <v>44047.333333333336</v>
       </c>
       <c r="B49">
-        <v>2.1161906879691401E-2</v>
+        <v>6.3821379725310004E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44047.840277777781</v>
+        <v>44047.340277777781</v>
       </c>
       <c r="B50">
-        <v>1.70715240357877E-2</v>
+        <v>0.109446117199111</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44047.847222222219</v>
+        <v>44047.347222222219</v>
       </c>
       <c r="B51">
-        <v>1.69996164702816E-2</v>
+        <v>0.10301578607086501</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44047.854166666664</v>
+        <v>44047.354166666664</v>
       </c>
       <c r="B52">
-        <v>1.7741160910655002E-2</v>
+        <v>0.103041184490961</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44047.861111111109</v>
+        <v>44047.361111111109</v>
       </c>
       <c r="B53">
-        <v>2.1927323876692901E-2</v>
+        <v>9.12285504051248E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44047.868055555555</v>
+        <v>44047.368055555555</v>
       </c>
       <c r="B54">
-        <v>1.85009470034589E-2</v>
+        <v>8.8215598122028602E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44047.875</v>
+        <v>44047.375</v>
       </c>
       <c r="B55">
-        <v>1.8684453431338E-2</v>
+        <v>0.22324348184464499</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44047.881944444445</v>
+        <v>44047.381944444445</v>
       </c>
       <c r="B56">
-        <v>1.68876567299323E-2</v>
+        <v>0.14411483294642699</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44047.888888888891</v>
+        <v>44047.388888888891</v>
       </c>
       <c r="B57">
-        <v>1.5808872491471899E-2</v>
+        <v>0.120939538576277</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44047.895833333336</v>
+        <v>44047.395833333336</v>
       </c>
       <c r="B58">
-        <v>1.6872783265489699E-2</v>
+        <v>0.18372330186622701</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44047.902777777781</v>
+        <v>44047.402777777781</v>
       </c>
       <c r="B59">
-        <v>2.1632853880958501E-2</v>
+        <v>0.15397602484862499</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44047.909722222219</v>
+        <v>44047.409722222219</v>
       </c>
       <c r="B60">
-        <v>1.7302224668335101E-2</v>
+        <v>0.100781014283295</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44047.916666666664</v>
+        <v>44047.416666666664</v>
       </c>
       <c r="B61">
-        <v>1.53999632333124E-2</v>
+        <v>0.171422203698329</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44047.923611111109</v>
+        <v>44047.423611111109</v>
       </c>
       <c r="B62">
-        <v>1.7014567272072598E-2</v>
+        <v>0.16159364128332601</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44047.930555555555</v>
+        <v>44047.430555555555</v>
       </c>
       <c r="B63">
-        <v>1.34900998845247E-2</v>
+        <v>0.118647836862251</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44047.9375</v>
+        <v>44047.4375</v>
       </c>
       <c r="B64">
-        <v>1.65325735315517E-2</v>
+        <v>0.19219231241752599</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44047.944444444445</v>
+        <v>44047.444444444445</v>
       </c>
       <c r="B65">
-        <v>1.6515315554361101E-2</v>
+        <v>0.20255314197597701</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44047.951388888891</v>
+        <v>44047.451388888891</v>
       </c>
       <c r="B66">
-        <v>1.8414563343645701E-2</v>
+        <v>0.121063314443406</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44047.958333333336</v>
+        <v>44047.458333333336</v>
       </c>
       <c r="B67">
-        <v>1.6327370251769498E-2</v>
+        <v>0.184817647627805</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44047.965277777781</v>
+        <v>44047.465277777781</v>
       </c>
       <c r="B68">
-        <v>1.77448430965087E-2</v>
+        <v>0.16040691881660599</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44047.972222222219</v>
+        <v>44047.472222222219</v>
       </c>
       <c r="B69">
-        <v>1.7770457060865399E-2</v>
+        <v>0.10911521180440301</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44047.979166666664</v>
+        <v>44047.479166666664</v>
       </c>
       <c r="B70">
-        <v>1.70124309103203E-2</v>
+        <v>8.0745886298833697E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44047.986111111109</v>
+        <v>44047.486111111109</v>
       </c>
       <c r="B71">
-        <v>1.82400024956553E-2</v>
+        <v>7.62824698620546E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44047.993055555555</v>
+        <v>44047.493055555555</v>
       </c>
       <c r="B72">
-        <v>1.80289830492424E-2</v>
+        <v>0.136062264821423</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44048</v>
+        <v>44047.5</v>
       </c>
       <c r="B73">
-        <v>1.71581178458486E-2</v>
+        <v>0.23335830023937401</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44048.006944444445</v>
+        <v>44047.506944444445</v>
       </c>
       <c r="B74">
-        <v>1.6236432697131702E-2</v>
+        <v>0.14344015001771901</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44048.013888888891</v>
+        <v>44047.513888888891</v>
       </c>
       <c r="B75">
-        <v>1.6857641495411101E-2</v>
+        <v>0.167025960725315</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44048.020833333336</v>
+        <v>44047.520833333336</v>
       </c>
       <c r="B76">
-        <v>1.6945939775628301E-2</v>
+        <v>0.104483880150956</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44048.027777777781</v>
+        <v>44047.527777777781</v>
       </c>
       <c r="B77">
-        <v>1.7722334142907099E-2</v>
+        <v>3.5645505255050003E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44048.034722222219</v>
+        <v>44047.534722222219</v>
       </c>
       <c r="B78">
-        <v>1.8261748752210899E-2</v>
+        <v>5.4113108313971599E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44048.041666666664</v>
+        <v>44047.541666666664</v>
       </c>
       <c r="B79">
-        <v>1.8748103347586299E-2</v>
+        <v>9.8739617312490896E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44048.048611111109</v>
+        <v>44047.548611111109</v>
       </c>
       <c r="B80">
-        <v>2.0028785403046801E-2</v>
+        <v>7.15439949750762E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44048.055555555555</v>
+        <v>44047.555555555555</v>
       </c>
       <c r="B81">
-        <v>1.8617544805650602E-2</v>
+        <v>5.99905430573726E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44048.0625</v>
+        <v>44047.5625</v>
       </c>
       <c r="B82">
-        <v>1.7446566668206799E-2</v>
+        <v>8.6781687908039695E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44048.069444444445</v>
+        <v>44047.569444444445</v>
       </c>
       <c r="B83">
-        <v>1.78366710154702E-2</v>
+        <v>0.11653585709591099</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44048.076388888891</v>
+        <v>44047.576388888891</v>
       </c>
       <c r="B84">
-        <v>1.7194838025243402E-2</v>
+        <v>0.14534974052042501</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44048.083333333336</v>
+        <v>44047.583333333336</v>
       </c>
       <c r="B85">
-        <v>1.6255245663981201E-2</v>
+        <v>0.10443348975034</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44048.090277777781</v>
+        <v>44047.590277777781</v>
       </c>
       <c r="B86">
-        <v>1.63482617992265E-2</v>
+        <v>6.4920834277191905E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44048.097222222219</v>
+        <v>44047.597222222219</v>
       </c>
       <c r="B87">
-        <v>2.2398183316308301E-2</v>
+        <v>0.113196894769882</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44048.104166666664</v>
+        <v>44047.604166666664</v>
       </c>
       <c r="B88">
-        <v>1.8719518495406599E-2</v>
+        <v>0.122076125798722</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44048.111111111109</v>
+        <v>44047.611111111109</v>
       </c>
       <c r="B89">
-        <v>1.8045564245474401E-2</v>
+        <v>8.8595863831252494E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44048.118055555555</v>
+        <v>44047.618055555555</v>
       </c>
       <c r="B90">
-        <v>1.96086981428427E-2</v>
+        <v>6.4156455441713195E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44048.125</v>
+        <v>44047.625</v>
       </c>
       <c r="B91">
-        <v>1.7562579966888699E-2</v>
+        <v>6.2246422289654199E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44048.131944444445</v>
+        <v>44047.631944444445</v>
       </c>
       <c r="B92">
-        <v>1.6336677470669199E-2</v>
+        <v>5.36927544935413E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44048.138888888891</v>
+        <v>44047.638888888891</v>
       </c>
       <c r="B93">
-        <v>1.7582213568378201E-2</v>
+        <v>0.110896909953551</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44048.145833333336</v>
+        <v>44047.645833333336</v>
       </c>
       <c r="B94">
-        <v>1.89937200020623E-2</v>
+        <v>0.15509192992469001</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44048.152777777781</v>
+        <v>44047.652777777781</v>
       </c>
       <c r="B95">
-        <v>1.8286863741896701E-2</v>
+        <v>6.02982976272173E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44048.159722222219</v>
+        <v>44047.659722222219</v>
       </c>
       <c r="B96">
-        <v>1.5739428253082301E-2</v>
+        <v>4.9095645960649803E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44048.166666666664</v>
+        <v>44047.666666666664</v>
       </c>
       <c r="B97">
-        <v>1.7089760859081499E-2</v>
+        <v>2.47263627559853E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44048.173611111109</v>
+        <v>44047.673611111109</v>
       </c>
       <c r="B98">
-        <v>1.7878920208920599E-2</v>
+        <v>2.5085801663026201E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44048.180555555555</v>
+        <v>44047.680555555555</v>
       </c>
       <c r="B99">
-        <v>1.98529497528733E-2</v>
+        <v>3.5903506429470003E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44048.1875</v>
+        <v>44047.6875</v>
       </c>
       <c r="B100">
-        <v>1.7388444463848299E-2</v>
+        <v>5.2645606686145097E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>44048.194444444445</v>
+        <v>44047.694444444445</v>
       </c>
       <c r="B101">
-        <v>1.6499776825008999E-2</v>
+        <v>4.0556191137042098E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44048.201388888891</v>
+        <v>44047.701388888891</v>
       </c>
       <c r="B102">
-        <v>1.9652607201812899E-2</v>
+        <v>4.8555996504164603E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>44048.208333333336</v>
+        <v>44047.708333333336</v>
       </c>
       <c r="B103">
-        <v>2.3401384202223499E-2</v>
+        <v>2.0640054064266299E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44048.215277777781</v>
+        <v>44047.715277777781</v>
       </c>
       <c r="B104">
-        <v>2.18639735471341E-2</v>
+        <v>5.1263643115071998E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>44048.222222222219</v>
+        <v>44047.722222222219</v>
       </c>
       <c r="B105">
-        <v>1.9811406388940599E-2</v>
+        <v>4.7068067717170002E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>44048.229166666664</v>
+        <v>44047.729166666664</v>
       </c>
       <c r="B106">
-        <v>1.9910279299062701E-2</v>
+        <v>5.0930771945183098E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44048.236111111109</v>
+        <v>44047.736111111109</v>
       </c>
       <c r="B107">
-        <v>1.9286220839027601E-2</v>
+        <v>3.6687440666286597E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44048.243055555555</v>
+        <v>44047.743055555555</v>
       </c>
       <c r="B108">
-        <v>2.3951798538545201E-2</v>
+        <v>3.2035063196877399E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44048.25</v>
+        <v>44047.75</v>
       </c>
       <c r="B109">
-        <v>3.14473420040925E-2</v>
+        <v>2.5539567315409299E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44048.256944444445</v>
+        <v>44047.756944444445</v>
       </c>
       <c r="B110">
-        <v>2.67259003023229E-2</v>
+        <v>1.8405383892039301E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44048.263888888891</v>
+        <v>44047.763888888891</v>
       </c>
       <c r="B111">
-        <v>3.0950644728788501E-2</v>
+        <v>3.0710076812188101E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44048.270833333336</v>
+        <v>44047.770833333336</v>
       </c>
       <c r="B112">
-        <v>3.1521789037761302E-2</v>
+        <v>2.19164269761787E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44048.277777777781</v>
+        <v>44047.777777777781</v>
       </c>
       <c r="B113">
-        <v>2.9602166656361801E-2</v>
+        <v>2.2591141162475199E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44048.284722222219</v>
+        <v>44047.784722222219</v>
       </c>
       <c r="B114">
-        <v>3.3948385730615101E-2</v>
+        <v>2.4466822162762102E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44048.291666666664</v>
+        <v>44047.791666666664</v>
       </c>
       <c r="B115">
-        <v>3.0305445931651399E-2</v>
+        <v>1.92193649108254E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44048.298611111109</v>
+        <v>44047.798611111109</v>
       </c>
       <c r="B116">
-        <v>2.77843479330417E-2</v>
+        <v>1.9286190259636501E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44048.305555555555</v>
+        <v>44047.805555555555</v>
       </c>
       <c r="B117">
-        <v>2.9273532488290298E-2</v>
+        <v>2.02709576241543E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44048.3125</v>
+        <v>44047.8125</v>
       </c>
       <c r="B118">
-        <v>3.1344634651408597E-2</v>
+        <v>1.93462717173788E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44048.319444444445</v>
+        <v>44047.819444444445</v>
       </c>
       <c r="B119">
-        <v>3.3806353339323102E-2</v>
+        <v>3.5808873576134097E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44048.326388888891</v>
+        <v>44047.826388888891</v>
       </c>
       <c r="B120">
-        <v>2.8768950698976298E-2</v>
+        <v>3.7333262295341001E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44048.333333333336</v>
+        <v>44047.833333333336</v>
       </c>
       <c r="B121">
-        <v>2.2240230955367101E-2</v>
+        <v>2.1161906879691401E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44048.340277777781</v>
+        <v>44047.840277777781</v>
       </c>
       <c r="B122">
-        <v>2.05003738057595E-2</v>
+        <v>1.70715240357877E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44048.347222222219</v>
+        <v>44047.847222222219</v>
       </c>
       <c r="B123">
-        <v>2.4094806449199101E-2</v>
+        <v>1.69996164702816E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44048.354166666664</v>
+        <v>44047.854166666664</v>
       </c>
       <c r="B124">
-        <v>2.6539239768181101E-2</v>
+        <v>1.7741160910655002E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44048.361111111109</v>
+        <v>44047.861111111109</v>
       </c>
       <c r="B125">
-        <v>2.2988614557077201E-2</v>
+        <v>2.1927323876692901E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>44048.368055555555</v>
+        <v>44047.868055555555</v>
       </c>
       <c r="B126">
-        <v>2.6887240429842901E-2</v>
+        <v>1.85009470034589E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>44048.375</v>
+        <v>44047.875</v>
       </c>
       <c r="B127">
-        <v>2.4406444842520601E-2</v>
+        <v>1.8684453431338E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44048.381944444445</v>
+        <v>44047.881944444445</v>
       </c>
       <c r="B128">
-        <v>3.5354706140300403E-2</v>
+        <v>1.68876567299323E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>44048.388888888891</v>
+        <v>44047.888888888891</v>
       </c>
       <c r="B129">
-        <v>3.2162757198528701E-2</v>
+        <v>1.5808872491471899E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>44048.395833333336</v>
+        <v>44047.895833333336</v>
       </c>
       <c r="B130">
-        <v>2.9580344710020801E-2</v>
+        <v>1.6872783265489699E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>44048.402777777781</v>
+        <v>44047.902777777781</v>
       </c>
       <c r="B131">
-        <v>3.1329877862735903E-2</v>
+        <v>2.1632853880958501E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>44048.409722222219</v>
+        <v>44047.909722222219</v>
       </c>
       <c r="B132">
-        <v>2.3246963148162499E-2</v>
+        <v>1.7302224668335101E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>44048.416666666664</v>
+        <v>44047.916666666664</v>
       </c>
       <c r="B133">
-        <v>2.3008157799271699E-2</v>
+        <v>1.53999632333124E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>44048.423611111109</v>
+        <v>44047.923611111109</v>
       </c>
       <c r="B134">
-        <v>2.2949394088264501E-2</v>
+        <v>1.7014567272072598E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>44048.430555555555</v>
+        <v>44047.930555555555</v>
       </c>
       <c r="B135">
-        <v>5.26860427965061E-2</v>
+        <v>1.34900998845247E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>44048.4375</v>
+        <v>44047.9375</v>
       </c>
       <c r="B136">
-        <v>4.4051631518506801E-2</v>
+        <v>1.65325735315517E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>44048.444444444445</v>
+        <v>44047.944444444445</v>
       </c>
       <c r="B137">
-        <v>4.15725827445039E-2</v>
+        <v>1.6515315554361101E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44048.451388888891</v>
+        <v>44047.951388888891</v>
       </c>
       <c r="B138">
-        <v>3.2360265664975602E-2</v>
+        <v>1.8414563343645701E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>44048.458333333336</v>
+        <v>44047.958333333336</v>
       </c>
       <c r="B139">
-        <v>5.3995870872425002E-2</v>
+        <v>1.6327370251769498E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>44048.465277777781</v>
+        <v>44047.965277777781</v>
       </c>
       <c r="B140">
-        <v>5.2621713480978903E-2</v>
+        <v>1.77448430965087E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>44048.472222222219</v>
+        <v>44047.972222222219</v>
       </c>
       <c r="B141">
-        <v>3.1157831910958798E-2</v>
+        <v>1.7770457060865399E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>44048.479166666664</v>
+        <v>44047.979166666664</v>
       </c>
       <c r="B142">
-        <v>5.0777288538024198E-2</v>
+        <v>1.70124309103203E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>44048.486111111109</v>
+        <v>44047.986111111109</v>
       </c>
       <c r="B143">
-        <v>6.07803217047184E-2</v>
+        <v>1.82400024956553E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>44048.493055555555</v>
+        <v>44047.993055555555</v>
       </c>
       <c r="B144">
-        <v>3.4002487315833198E-2</v>
+        <v>1.80289830492424E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44048.5</v>
+        <v>44048</v>
       </c>
       <c r="B145">
-        <v>3.43935957411498E-2</v>
+        <v>1.71581178458486E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>44048.506944444445</v>
+        <v>44048.006944444445</v>
       </c>
       <c r="B146">
-        <v>2.6248304732980801E-2</v>
+        <v>1.6236432697131702E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>44048.513888888891</v>
+        <v>44048.013888888891</v>
       </c>
       <c r="B147">
-        <v>0.108588334523514</v>
+        <v>1.6857641495411101E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>44048.520833333336</v>
+        <v>44048.020833333336</v>
       </c>
       <c r="B148">
-        <v>7.6978144591019898E-2</v>
+        <v>1.6945939775628301E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>44048.527777777781</v>
+        <v>44048.027777777781</v>
       </c>
       <c r="B149">
-        <v>6.6747700436433202E-2</v>
+        <v>1.7722334142907099E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>44048.534722222219</v>
+        <v>44048.034722222219</v>
       </c>
       <c r="B150">
-        <v>9.3607139357768904E-2</v>
+        <v>1.8261748752210899E-2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>44048.541666666664</v>
+        <v>44048.041666666664</v>
       </c>
       <c r="B151">
-        <v>9.6913450845498503E-2</v>
+        <v>1.8748103347586299E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>44048.548611111109</v>
+        <v>44048.048611111109</v>
       </c>
       <c r="B152">
-        <v>5.1188151249473797E-2</v>
+        <v>2.0028785403046801E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>44048.555555555555</v>
+        <v>44048.055555555555</v>
       </c>
       <c r="B153">
-        <v>9.1872786206759705E-2</v>
+        <v>1.8617544805650602E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>44048.5625</v>
+        <v>44048.0625</v>
       </c>
       <c r="B154">
-        <v>3.7950578539255202E-2</v>
+        <v>1.7446566668206799E-2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>44048.569444444445</v>
+        <v>44048.069444444445</v>
       </c>
       <c r="B155">
-        <v>4.6273537651670103E-2</v>
+        <v>1.78366710154702E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>44048.576388888891</v>
+        <v>44048.076388888891</v>
       </c>
       <c r="B156">
-        <v>6.38158069163242E-2</v>
+        <v>1.7194838025243402E-2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>44048.583333333336</v>
+        <v>44048.083333333336</v>
       </c>
       <c r="B157">
-        <v>7.29596024148811E-2</v>
+        <v>1.6255245663981201E-2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>44048.590277777781</v>
+        <v>44048.090277777781</v>
       </c>
       <c r="B158">
-        <v>7.9425917167365398E-2</v>
+        <v>1.63482617992265E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>44048.597222222219</v>
+        <v>44048.097222222219</v>
       </c>
       <c r="B159">
-        <v>3.2625559234680003E-2</v>
+        <v>2.2398183316308301E-2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>44048.604166666664</v>
+        <v>44048.104166666664</v>
       </c>
       <c r="B160">
-        <v>4.6525617833157798E-2</v>
+        <v>1.8719518495406599E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>44048.611111111109</v>
+        <v>44048.111111111109</v>
       </c>
       <c r="B161">
-        <v>6.0789803696541501E-2</v>
+        <v>1.8045564245474401E-2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>44048.618055555555</v>
+        <v>44048.118055555555</v>
       </c>
       <c r="B162">
-        <v>5.9635734716622799E-2</v>
+        <v>1.96086981428427E-2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>44048.625</v>
+        <v>44048.125</v>
       </c>
       <c r="B163">
-        <v>6.2770814012942697E-2</v>
+        <v>1.7562579966888699E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>44048.631944444445</v>
+        <v>44048.131944444445</v>
       </c>
       <c r="B164">
-        <v>5.90835886743101E-2</v>
+        <v>1.6336677470669199E-2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>44048.638888888891</v>
+        <v>44048.138888888891</v>
       </c>
       <c r="B165">
-        <v>4.6684802662875099E-2</v>
+        <v>1.7582213568378201E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>44048.645833333336</v>
+        <v>44048.145833333336</v>
       </c>
       <c r="B166">
-        <v>7.9809518722741293E-2</v>
+        <v>1.89937200020623E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>44048.652777777781</v>
+        <v>44048.152777777781</v>
       </c>
       <c r="B167">
-        <v>9.1316246886993899E-2</v>
+        <v>1.8286863741896701E-2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>44048.659722222219</v>
+        <v>44048.159722222219</v>
       </c>
       <c r="B168">
-        <v>7.1883377675894505E-2</v>
+        <v>1.5739428253082301E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>44048.666666666664</v>
+        <v>44048.166666666664</v>
       </c>
       <c r="B169">
-        <v>0.123816179626261</v>
+        <v>1.7089760859081499E-2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>44048.673611111109</v>
+        <v>44048.173611111109</v>
       </c>
       <c r="B170">
-        <v>0.105008802964331</v>
+        <v>1.7878920208920599E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>44048.680555555555</v>
+        <v>44048.180555555555</v>
       </c>
       <c r="B171">
-        <v>0.14098175596566301</v>
+        <v>1.98529497528733E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>44048.6875</v>
+        <v>44048.1875</v>
       </c>
       <c r="B172">
-        <v>0.15052559200584401</v>
+        <v>1.7388444463848299E-2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>44048.694444444445</v>
+        <v>44048.194444444445</v>
       </c>
       <c r="B173">
-        <v>9.4363082746713095E-2</v>
+        <v>1.6499776825008999E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>44048.701388888891</v>
+        <v>44048.201388888891</v>
       </c>
       <c r="B174">
-        <v>0.21661306981459399</v>
+        <v>1.9652607201812899E-2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>44048.708333333336</v>
+        <v>44048.208333333336</v>
       </c>
       <c r="B175">
-        <v>0.106660386691007</v>
+        <v>2.3401384202223499E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>44048.715277777781</v>
+        <v>44048.215277777781</v>
       </c>
       <c r="B176">
-        <v>0.124554386998012</v>
+        <v>2.18639735471341E-2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>44048.722222222219</v>
+        <v>44048.222222222219</v>
       </c>
       <c r="B177">
-        <v>0.116989070630245</v>
+        <v>1.9811406388940599E-2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>44048.729166666664</v>
+        <v>44048.229166666664</v>
       </c>
       <c r="B178">
-        <v>0.13265603081163899</v>
+        <v>1.9910279299062701E-2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>44048.736111111109</v>
+        <v>44048.236111111109</v>
       </c>
       <c r="B179">
-        <v>0.14456673915773</v>
+        <v>1.9286220839027601E-2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>44048.743055555555</v>
+        <v>44048.243055555555</v>
       </c>
       <c r="B180">
-        <v>0.107408331708382</v>
+        <v>2.3951798538545201E-2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>44048.75</v>
+        <v>44048.25</v>
       </c>
       <c r="B181">
-        <v>0.10533064893729401</v>
+        <v>3.14473420040925E-2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>44048.756944444445</v>
+        <v>44048.256944444445</v>
       </c>
       <c r="B182">
-        <v>0.10748151560781399</v>
+        <v>2.67259003023229E-2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>44048.763888888891</v>
+        <v>44048.263888888891</v>
       </c>
       <c r="B183">
-        <v>0.123184567852862</v>
+        <v>3.0950644728788501E-2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>44048.770833333336</v>
+        <v>44048.270833333336</v>
       </c>
       <c r="B184">
-        <v>0.14893921824359099</v>
+        <v>3.1521789037761302E-2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>44048.777777777781</v>
+        <v>44048.277777777781</v>
       </c>
       <c r="B185">
-        <v>0.108616157262547</v>
+        <v>2.9602166656361801E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>44048.784722222219</v>
+        <v>44048.284722222219</v>
       </c>
       <c r="B186">
-        <v>9.1156138588469396E-2</v>
+        <v>3.3948385730615101E-2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>44048.791666666664</v>
+        <v>44048.291666666664</v>
       </c>
       <c r="B187">
-        <v>0.108423589685385</v>
+        <v>3.0305445931651399E-2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>44048.798611111109</v>
+        <v>44048.298611111109</v>
       </c>
       <c r="B188">
-        <v>0.110004485187548</v>
+        <v>2.77843479330417E-2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>44048.805555555555</v>
+        <v>44048.305555555555</v>
       </c>
       <c r="B189">
-        <v>0.10208573148924199</v>
+        <v>2.9273532488290298E-2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>44048.8125</v>
+        <v>44048.3125</v>
       </c>
       <c r="B190">
-        <v>9.9449530448265405E-2</v>
+        <v>3.1344634651408597E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>44048.819444444445</v>
+        <v>44048.319444444445</v>
       </c>
       <c r="B191">
-        <v>9.3655325231504702E-2</v>
+        <v>3.3806353339323102E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>44048.826388888891</v>
+        <v>44048.326388888891</v>
       </c>
       <c r="B192">
-        <v>8.0880457986607701E-2</v>
+        <v>2.8768950698976298E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>44048.833333333336</v>
+        <v>44048.333333333336</v>
       </c>
       <c r="B193">
-        <v>7.44673116187312E-2</v>
+        <v>2.2240230955367101E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>44048.840277777781</v>
+        <v>44048.340277777781</v>
       </c>
       <c r="B194">
-        <v>7.3881842620992802E-2</v>
+        <v>2.05003738057595E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>44048.847222222219</v>
+        <v>44048.347222222219</v>
       </c>
       <c r="B195">
-        <v>7.2173694080503406E-2</v>
+        <v>2.4094806449199101E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>44048.854166666664</v>
+        <v>44048.354166666664</v>
       </c>
       <c r="B196">
-        <v>7.2735892559844403E-2</v>
+        <v>2.6539239768181101E-2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>44048.861111111109</v>
+        <v>44048.361111111109</v>
       </c>
       <c r="B197">
-        <v>6.7847250080054905E-2</v>
+        <v>2.2988614557077201E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>44048.868055555555</v>
+        <v>44048.368055555555</v>
       </c>
       <c r="B198">
-        <v>6.0057574874020803E-2</v>
+        <v>2.6887240429842901E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>44048.875</v>
+        <v>44048.375</v>
       </c>
       <c r="B199">
-        <v>5.7443182041586299E-2</v>
+        <v>2.4406444842520601E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>44048.881944444445</v>
+        <v>44048.381944444445</v>
       </c>
       <c r="B200">
-        <v>5.5971938002233497E-2</v>
+        <v>3.5354706140300403E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>44048.888888888891</v>
+        <v>44048.388888888891</v>
       </c>
       <c r="B201">
-        <v>5.3553889122730902E-2</v>
+        <v>3.2162757198528701E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>44048.895833333336</v>
+        <v>44048.395833333336</v>
       </c>
       <c r="B202">
-        <v>5.5720525543378099E-2</v>
+        <v>2.9580344710020801E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>44048.902777777781</v>
+        <v>44048.402777777781</v>
       </c>
       <c r="B203">
-        <v>5.4383249584802597E-2</v>
+        <v>3.1329877862735903E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>44048.909722222219</v>
+        <v>44048.409722222219</v>
       </c>
       <c r="B204">
-        <v>5.3261464970558003E-2</v>
+        <v>2.3246963148162499E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>44048.916666666664</v>
+        <v>44048.416666666664</v>
       </c>
       <c r="B205">
-        <v>5.8714432757435001E-2</v>
+        <v>2.3008157799271699E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>44048.923611111109</v>
+        <v>44048.423611111109</v>
       </c>
       <c r="B206">
-        <v>5.6984715025240003E-2</v>
+        <v>2.2949394088264501E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>44048.930555555555</v>
+        <v>44048.430555555555</v>
       </c>
       <c r="B207">
-        <v>5.9145327088837601E-2</v>
+        <v>5.26860427965061E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>44048.9375</v>
+        <v>44048.4375</v>
       </c>
       <c r="B208">
-        <v>6.2598171443488296E-2</v>
+        <v>4.4051631518506801E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>44048.944444444445</v>
+        <v>44048.444444444445</v>
       </c>
       <c r="B209">
-        <v>6.6430310500947901E-2</v>
+        <v>4.15725827445039E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>44048.951388888891</v>
+        <v>44048.451388888891</v>
       </c>
       <c r="B210">
-        <v>7.6083032247011295E-2</v>
+        <v>3.2360265664975602E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>44048.958333333336</v>
+        <v>44048.458333333336</v>
       </c>
       <c r="B211">
-        <v>8.2614530535361899E-2</v>
+        <v>5.3995870872425002E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>44048.965277777781</v>
+        <v>44048.465277777781</v>
       </c>
       <c r="B212">
-        <v>8.3709160120347695E-2</v>
+        <v>5.2621713480978903E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>44048.972222222219</v>
+        <v>44048.472222222219</v>
       </c>
       <c r="B213">
-        <v>8.1236235597255999E-2</v>
+        <v>3.1157831910958798E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>44048.979166666664</v>
+        <v>44048.479166666664</v>
       </c>
       <c r="B214">
-        <v>7.9741970860298703E-2</v>
+        <v>5.0777288538024198E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>44048.986111111109</v>
+        <v>44048.486111111109</v>
       </c>
       <c r="B215">
-        <v>8.2344615629643195E-2</v>
+        <v>6.07803217047184E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>44048.993055555555</v>
+        <v>44048.493055555555</v>
       </c>
       <c r="B216">
-        <v>8.4419665320335999E-2</v>
+        <v>3.4002487315833198E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>44049</v>
+        <v>44048.5</v>
       </c>
       <c r="B217">
-        <v>8.43878893411876E-2</v>
+        <v>3.43935957411498E-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>44049.006944444445</v>
+        <v>44048.506944444445</v>
       </c>
       <c r="B218">
-        <v>8.5937649340640104E-2</v>
+        <v>2.6248304732980801E-2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>44049.013888888891</v>
+        <v>44048.513888888891</v>
       </c>
       <c r="B219">
-        <v>8.3843169511295501E-2</v>
+        <v>0.108588334523514</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>44049.020833333336</v>
+        <v>44048.520833333336</v>
       </c>
       <c r="B220">
-        <v>7.9698863190952304E-2</v>
+        <v>7.6978144591019898E-2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>44049.027777777781</v>
+        <v>44048.527777777781</v>
       </c>
       <c r="B221">
-        <v>8.3801257687474304E-2</v>
+        <v>6.6747700436433202E-2</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>44049.034722222219</v>
+        <v>44048.534722222219</v>
       </c>
       <c r="B222">
-        <v>5.3928647266279398E-2</v>
+        <v>9.3607139357768904E-2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>44049.041666666664</v>
+        <v>44048.541666666664</v>
       </c>
       <c r="B223">
-        <v>3.3510040164882397E-2</v>
+        <v>9.6913450845498503E-2</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>44049.048611111109</v>
+        <v>44048.548611111109</v>
       </c>
       <c r="B224">
-        <v>3.6923515729631803E-2</v>
+        <v>5.1188151249473797E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>44049.055555555555</v>
+        <v>44048.555555555555</v>
       </c>
       <c r="B225">
-        <v>4.1347961947596198E-2</v>
+        <v>9.1872786206759705E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>44049.0625</v>
+        <v>44048.5625</v>
       </c>
       <c r="B226">
-        <v>6.8899866440550905E-2</v>
+        <v>3.7950578539255202E-2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>44049.069444444445</v>
+        <v>44048.569444444445</v>
       </c>
       <c r="B227">
-        <v>8.0260422405194598E-2</v>
+        <v>4.6273537651670103E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>44049.076388888891</v>
+        <v>44048.576388888891</v>
       </c>
       <c r="B228">
-        <v>8.2593100221556803E-2</v>
+        <v>6.38158069163242E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>44049.083333333336</v>
+        <v>44048.583333333336</v>
       </c>
       <c r="B229">
-        <v>7.7845606937963593E-2</v>
+        <v>7.29596024148811E-2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>44049.090277777781</v>
+        <v>44048.590277777781</v>
       </c>
       <c r="B230">
-        <v>7.8456162358172599E-2</v>
+        <v>7.9425917167365398E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>44049.097222222219</v>
+        <v>44048.597222222219</v>
       </c>
       <c r="B231">
-        <v>7.9117089944456501E-2</v>
+        <v>3.2625559234680003E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>44049.104166666664</v>
+        <v>44048.604166666664</v>
       </c>
       <c r="B232">
-        <v>7.7457496637058795E-2</v>
+        <v>4.6525617833157798E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>44049.111111111109</v>
+        <v>44048.611111111109</v>
       </c>
       <c r="B233">
-        <v>8.13715814274074E-2</v>
+        <v>6.0789803696541501E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>44049.118055555555</v>
+        <v>44048.618055555555</v>
       </c>
       <c r="B234">
-        <v>8.3442395202825106E-2</v>
+        <v>5.9635734716622799E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>44049.125</v>
+        <v>44048.625</v>
       </c>
       <c r="B235">
-        <v>8.0180306975208296E-2</v>
+        <v>6.2770814012942697E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>44049.131944444445</v>
+        <v>44048.631944444445</v>
       </c>
       <c r="B236">
-        <v>7.8696590146682399E-2</v>
+        <v>5.90835886743101E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>44049.138888888891</v>
+        <v>44048.638888888891</v>
       </c>
       <c r="B237">
-        <v>7.9005160082294801E-2</v>
+        <v>4.6684802662875099E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>44049.145833333336</v>
+        <v>44048.645833333336</v>
       </c>
       <c r="B238">
-        <v>7.7331834962990301E-2</v>
+        <v>7.9809518722741293E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>44049.152777777781</v>
+        <v>44048.652777777781</v>
       </c>
       <c r="B239">
-        <v>8.0317871869644702E-2</v>
+        <v>9.1316246886993899E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>44049.159722222219</v>
+        <v>44048.659722222219</v>
       </c>
       <c r="B240">
-        <v>7.8112407001843506E-2</v>
+        <v>7.1883377675894505E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>44049.166666666664</v>
+        <v>44048.666666666664</v>
       </c>
       <c r="B241">
-        <v>7.4959618668844902E-2</v>
+        <v>0.123816179626261</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>44049.173611111109</v>
+        <v>44048.673611111109</v>
       </c>
       <c r="B242">
-        <v>7.4166127590114303E-2</v>
+        <v>0.105008802964331</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>44049.180555555555</v>
+        <v>44048.680555555555</v>
       </c>
       <c r="B243">
-        <v>7.9292611700043203E-2</v>
+        <v>0.14098175596566301</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>44049.1875</v>
+        <v>44048.6875</v>
       </c>
       <c r="B244">
-        <v>7.74993803182078E-2</v>
+        <v>0.15052559200584401</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>44049.194444444445</v>
+        <v>44048.694444444445</v>
       </c>
       <c r="B245">
-        <v>7.4621408193797104E-2</v>
+        <v>9.4363082746713095E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>44049.201388888891</v>
+        <v>44048.701388888891</v>
       </c>
       <c r="B246">
-        <v>7.6448287364412504E-2</v>
+        <v>0.21661306981459399</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>44049.208333333336</v>
+        <v>44048.708333333336</v>
       </c>
       <c r="B247">
-        <v>7.7275359403283603E-2</v>
+        <v>0.106660386691007</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>44049.215277777781</v>
+        <v>44048.715277777781</v>
       </c>
       <c r="B248">
-        <v>8.0376770309707204E-2</v>
+        <v>0.124554386998012</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>44049.222222222219</v>
+        <v>44048.722222222219</v>
       </c>
       <c r="B249">
-        <v>7.7373337776180107E-2</v>
+        <v>0.116989070630245</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>44049.229166666664</v>
+        <v>44048.729166666664</v>
       </c>
       <c r="B250">
-        <v>7.8151350876502199E-2</v>
+        <v>0.13265603081163899</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>44049.236111111109</v>
+        <v>44048.736111111109</v>
       </c>
       <c r="B251">
-        <v>7.7697615582864296E-2</v>
+        <v>0.14456673915773</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>44049.243055555555</v>
+        <v>44048.743055555555</v>
       </c>
       <c r="B252">
-        <v>7.7622491893588094E-2</v>
+        <v>0.107408331708382</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>44049.25</v>
+        <v>44048.75</v>
       </c>
       <c r="B253">
-        <v>5.1313783998370499E-2</v>
+        <v>0.10533064893729401</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>44049.256944444445</v>
+        <v>44048.756944444445</v>
       </c>
       <c r="B254">
-        <v>7.7484459905012806E-2</v>
+        <v>0.10748151560781399</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>44049.263888888891</v>
+        <v>44048.763888888891</v>
       </c>
       <c r="B255">
-        <v>6.1027348209388203E-2</v>
+        <v>0.123184567852862</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>44049.270833333336</v>
+        <v>44048.770833333336</v>
       </c>
       <c r="B256">
-        <v>6.3628152959474701E-2</v>
+        <v>0.14893921824359099</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>44049.277777777781</v>
+        <v>44048.777777777781</v>
       </c>
       <c r="B257">
-        <v>5.9821439454406301E-2</v>
+        <v>0.108616157262547</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>44049.284722222219</v>
+        <v>44048.784722222219</v>
       </c>
       <c r="B258">
-        <v>4.5042686812985601E-2</v>
+        <v>9.1156138588469396E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>44049.291666666664</v>
+        <v>44048.791666666664</v>
       </c>
       <c r="B259">
-        <v>4.8497747736496399E-2</v>
+        <v>0.108423589685385</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>44049.298611111109</v>
+        <v>44048.798611111109</v>
       </c>
       <c r="B260">
-        <v>5.0440733509838097E-2</v>
+        <v>0.110004485187548</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>44049.305555555555</v>
+        <v>44048.805555555555</v>
       </c>
       <c r="B261">
-        <v>3.2032213796000998E-2</v>
+        <v>0.10208573148924199</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>44049.3125</v>
+        <v>44048.8125</v>
       </c>
       <c r="B262">
-        <v>3.2234306938697103E-2</v>
+        <v>9.9449530448265405E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>44049.319444444445</v>
+        <v>44048.819444444445</v>
       </c>
       <c r="B263">
-        <v>3.0847507913585499E-2</v>
+        <v>9.3655325231504702E-2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>44049.326388888891</v>
+        <v>44048.826388888891</v>
       </c>
       <c r="B264">
-        <v>3.2402194935587797E-2</v>
+        <v>8.0880457986607701E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>44049.333333333336</v>
+        <v>44048.833333333336</v>
       </c>
       <c r="B265">
-        <v>3.1459910910490697E-2</v>
+        <v>7.44673116187312E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>44049.340277777781</v>
+        <v>44048.840277777781</v>
       </c>
       <c r="B266">
-        <v>2.9060457874272999E-2</v>
+        <v>7.3881842620992802E-2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>44049.347222222219</v>
+        <v>44048.847222222219</v>
       </c>
       <c r="B267">
-        <v>1.9460020279879801E-2</v>
+        <v>7.2173694080503406E-2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>44049.354166666664</v>
+        <v>44048.854166666664</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>7.2735892559844403E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>44049.361111111109</v>
+        <v>44048.861111111109</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>6.7847250080054905E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>44049.368055555555</v>
+        <v>44048.868055555555</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>6.0057574874020803E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>44049.375</v>
+        <v>44048.875</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>5.7443182041586299E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>44049.381944444445</v>
+        <v>44048.881944444445</v>
       </c>
       <c r="B272">
-        <v>3.1576117591166401E-2</v>
+        <v>5.5971938002233497E-2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>44049.388888888891</v>
+        <v>44048.888888888891</v>
       </c>
       <c r="B273">
-        <v>3.20996261607338E-2</v>
+        <v>5.3553889122730902E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>44049.395833333336</v>
+        <v>44048.895833333336</v>
       </c>
       <c r="B274">
-        <v>2.5472101799394398E-2</v>
+        <v>5.5720525543378099E-2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>44049.402777777781</v>
+        <v>44048.902777777781</v>
       </c>
       <c r="B275">
-        <v>3.4375202364213403E-2</v>
+        <v>5.4383249584802597E-2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>44049.409722222219</v>
+        <v>44048.909722222219</v>
       </c>
       <c r="B276">
-        <v>2.92357333000191E-2</v>
+        <v>5.3261464970558003E-2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>44049.416666666664</v>
+        <v>44048.916666666664</v>
       </c>
       <c r="B277">
-        <v>2.731680058186E-2</v>
+        <v>5.8714432757435001E-2</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>44049.423611111109</v>
+        <v>44048.923611111109</v>
       </c>
       <c r="B278">
-        <v>2.89335280006515E-2</v>
+        <v>5.6984715025240003E-2</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>44049.430555555555</v>
+        <v>44048.930555555555</v>
       </c>
       <c r="B279">
-        <v>2.99317410166033E-2</v>
+        <v>5.9145327088837601E-2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>44049.4375</v>
+        <v>44048.9375</v>
       </c>
       <c r="B280">
-        <v>4.0867098742649197E-2</v>
+        <v>6.2598171443488296E-2</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>44049.444444444445</v>
+        <v>44048.944444444445</v>
       </c>
       <c r="B281">
-        <v>4.1115197850694903E-2</v>
+        <v>6.6430310500947901E-2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>44049.451388888891</v>
+        <v>44048.951388888891</v>
       </c>
       <c r="B282">
-        <v>3.03643482148898E-2</v>
+        <v>7.6083032247011295E-2</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>44049.458333333336</v>
+        <v>44048.958333333336</v>
       </c>
       <c r="B283">
-        <v>4.1218988056653201E-2</v>
+        <v>8.2614530535361899E-2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>44049.465277777781</v>
+        <v>44048.965277777781</v>
       </c>
       <c r="B284">
-        <v>4.6490018399800402E-2</v>
+        <v>8.3709160120347695E-2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>44049.472222222219</v>
+        <v>44048.972222222219</v>
       </c>
       <c r="B285">
-        <v>4.1367726908661598E-2</v>
+        <v>8.1236235597255999E-2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>44049.479166666664</v>
+        <v>44048.979166666664</v>
       </c>
       <c r="B286">
-        <v>4.5881335809728301E-2</v>
+        <v>7.9741970860298703E-2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>44049.486111111109</v>
+        <v>44048.986111111109</v>
       </c>
       <c r="B287">
-        <v>2.3787128477405401E-2</v>
+        <v>8.2344615629643195E-2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>44049.493055555555</v>
+        <v>44048.993055555555</v>
       </c>
       <c r="B288">
-        <v>3.8436736262206103E-2</v>
+        <v>8.4419665320335999E-2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>44049.5</v>
+        <v>44049</v>
       </c>
       <c r="B289">
-        <v>4.1166405931858302E-2</v>
+        <v>8.43878893411876E-2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>44049.506944444445</v>
+        <v>44049.006944444445</v>
       </c>
       <c r="B290">
-        <v>4.84259365650586E-2</v>
+        <v>8.5937649340640104E-2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>44049.513888888891</v>
+        <v>44049.013888888891</v>
       </c>
       <c r="B291">
-        <v>5.9898095130806801E-2</v>
+        <v>8.3843169511295501E-2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>44049.520833333336</v>
+        <v>44049.020833333336</v>
       </c>
       <c r="B292">
-        <v>5.4424796776800198E-2</v>
+        <v>7.9698863190952304E-2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>44049.527777777781</v>
+        <v>44049.027777777781</v>
       </c>
       <c r="B293">
-        <v>6.0799711128950502E-2</v>
+        <v>8.3801257687474304E-2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>44049.534722222219</v>
+        <v>44049.034722222219</v>
       </c>
       <c r="B294">
-        <v>6.1787389968461198E-2</v>
+        <v>5.3928647266279398E-2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>44049.541666666664</v>
+        <v>44049.041666666664</v>
       </c>
       <c r="B295">
-        <v>7.6824941966436605E-2</v>
+        <v>3.3510040164882397E-2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>44049.548611111109</v>
+        <v>44049.048611111109</v>
       </c>
       <c r="B296">
-        <v>8.1315345211924503E-2</v>
+        <v>3.6923515729631803E-2</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>44049.555555555555</v>
+        <v>44049.055555555555</v>
       </c>
       <c r="B297">
-        <v>5.8791177247034303E-2</v>
+        <v>4.1347961947596198E-2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>44049.5625</v>
+        <v>44049.0625</v>
       </c>
       <c r="B298">
-        <v>6.6435447887989593E-2</v>
+        <v>6.8899866440550905E-2</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>44049.569444444445</v>
+        <v>44049.069444444445</v>
       </c>
       <c r="B299">
-        <v>6.1775160263462199E-2</v>
+        <v>8.0260422405194598E-2</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>44049.576388888891</v>
+        <v>44049.076388888891</v>
       </c>
       <c r="B300">
-        <v>6.3916525474793803E-2</v>
+        <v>8.2593100221556803E-2</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>44049.583333333336</v>
+        <v>44049.083333333336</v>
       </c>
       <c r="B301">
-        <v>8.2570756646839702E-2</v>
+        <v>7.7845606937963593E-2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>44049.590277777781</v>
+        <v>44049.090277777781</v>
       </c>
       <c r="B302">
-        <v>8.2143539016944503E-2</v>
+        <v>7.8456162358172599E-2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>44049.597222222219</v>
+        <v>44049.097222222219</v>
       </c>
       <c r="B303">
-        <v>6.7559832774007803E-2</v>
+        <v>7.9117089944456501E-2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>44049.604166666664</v>
+        <v>44049.104166666664</v>
       </c>
       <c r="B304">
-        <v>5.9189651340471001E-2</v>
+        <v>7.7457496637058795E-2</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>44049.611111111109</v>
+        <v>44049.111111111109</v>
       </c>
       <c r="B305">
-        <v>4.6119574605076999E-2</v>
+        <v>8.13715814274074E-2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>44049.618055555555</v>
+        <v>44049.118055555555</v>
       </c>
       <c r="B306">
-        <v>5.9806639843856702E-2</v>
+        <v>8.3442395202825106E-2</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>44049.625</v>
+        <v>44049.125</v>
       </c>
       <c r="B307">
-        <v>8.7936239964236607E-2</v>
+        <v>8.0180306975208296E-2</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>44049.631944444445</v>
+        <v>44049.131944444445</v>
       </c>
       <c r="B308">
-        <v>8.2143539016944503E-2</v>
+        <v>7.8696590146682399E-2</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>44049.638888888891</v>
+        <v>44049.138888888891</v>
       </c>
       <c r="B309">
-        <v>6.7559832774007803E-2</v>
+        <v>7.9005160082294801E-2</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>44049.645833333336</v>
+        <v>44049.145833333336</v>
       </c>
       <c r="B310">
-        <v>5.9189651340471001E-2</v>
+        <v>7.7331834962990301E-2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>44049.652777777781</v>
+        <v>44049.152777777781</v>
       </c>
       <c r="B311">
-        <v>4.6119574605076999E-2</v>
+        <v>8.0317871869644702E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>44049.659722222219</v>
+        <v>44049.159722222219</v>
       </c>
       <c r="B312">
-        <v>5.9806639843856702E-2</v>
+        <v>7.8112407001843506E-2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>44049.666666666664</v>
+        <v>44049.166666666664</v>
       </c>
       <c r="B313">
-        <v>8.7936239964236607E-2</v>
+        <v>7.4959618668844902E-2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>44049.673611111109</v>
+        <v>44049.173611111109</v>
       </c>
       <c r="B314">
-        <v>8.1210530455485402E-2</v>
+        <v>7.4166127590114303E-2</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>44049.680555555555</v>
+        <v>44049.180555555555</v>
       </c>
       <c r="B315">
-        <v>8.6711719587149294E-2</v>
+        <v>7.9292611700043203E-2</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>44049.6875</v>
+        <v>44049.1875</v>
       </c>
       <c r="B316">
-        <v>8.8987806268515504E-2</v>
+        <v>7.74993803182078E-2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>44049.694444444445</v>
+        <v>44049.194444444445</v>
       </c>
       <c r="B317">
-        <v>9.3783787996095505E-2</v>
+        <v>7.4621408193797104E-2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>44049.701388888891</v>
+        <v>44049.201388888891</v>
       </c>
       <c r="B318">
-        <v>9.49601108192627E-2</v>
+        <v>7.6448287364412504E-2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>44049.708333333336</v>
+        <v>44049.208333333336</v>
       </c>
       <c r="B319">
-        <v>8.8140858772864095E-2</v>
+        <v>7.7275359403283603E-2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>44049.715277777781</v>
+        <v>44049.215277777781</v>
       </c>
       <c r="B320">
-        <v>8.6044330804161295E-2</v>
+        <v>8.0376770309707204E-2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>44049.722222222219</v>
+        <v>44049.222222222219</v>
       </c>
       <c r="B321">
-        <v>8.2825242246876193E-2</v>
+        <v>7.7373337776180107E-2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>44049.729166666664</v>
+        <v>44049.229166666664</v>
       </c>
       <c r="B322">
-        <v>7.3350048045716404E-2</v>
+        <v>7.8151350876502199E-2</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>44049.736111111109</v>
+        <v>44049.236111111109</v>
       </c>
       <c r="B323">
-        <v>7.5650143610706502E-2</v>
+        <v>7.7697615582864296E-2</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>44049.743055555555</v>
+        <v>44049.243055555555</v>
       </c>
       <c r="B324">
-        <v>7.8625648551282207E-2</v>
+        <v>7.7622491893588094E-2</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>44049.75</v>
+        <v>44049.25</v>
       </c>
       <c r="B325">
-        <v>6.8820797640296999E-2</v>
+        <v>5.1313783998370499E-2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>44049.756944444445</v>
+        <v>44049.256944444445</v>
       </c>
       <c r="B326">
-        <v>7.1614267436934803E-2</v>
+        <v>7.7484459905012806E-2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>44049.763888888891</v>
+        <v>44049.263888888891</v>
       </c>
       <c r="B327">
-        <v>3.9443132297073399E-2</v>
+        <v>6.1027348209388203E-2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>44049.770833333336</v>
+        <v>44049.270833333336</v>
       </c>
       <c r="B328">
-        <v>4.1010191908427099E-2</v>
+        <v>6.3628152959474701E-2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>44049.777777777781</v>
+        <v>44049.277777777781</v>
       </c>
       <c r="B329">
-        <v>2.7539577244304302E-2</v>
+        <v>5.9821439454406301E-2</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>44049.784722222219</v>
+        <v>44049.284722222219</v>
       </c>
       <c r="B330">
-        <v>2.0139060618561098E-2</v>
+        <v>4.5042686812985601E-2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>44049.791666666664</v>
+        <v>44049.291666666664</v>
       </c>
       <c r="B331">
-        <v>1.4773593006704999E-2</v>
+        <v>4.8497747736496399E-2</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>44049.798611111109</v>
+        <v>44049.298611111109</v>
       </c>
       <c r="B332">
-        <v>1.47720965575608E-2</v>
+        <v>5.0440733509838097E-2</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>44049.805555555555</v>
+        <v>44049.305555555555</v>
       </c>
       <c r="B333">
-        <v>1.46354640166935E-2</v>
+        <v>3.2032213796000998E-2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>44049.8125</v>
+        <v>44049.3125</v>
       </c>
       <c r="B334">
-        <v>1.54090440819609E-2</v>
+        <v>3.2234306938697103E-2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>44049.819444444445</v>
+        <v>44049.319444444445</v>
       </c>
       <c r="B335">
-        <v>1.47831105548758E-2</v>
+        <v>3.0847507913585499E-2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>44049.826388888891</v>
+        <v>44049.326388888891</v>
       </c>
       <c r="B336">
-        <v>1.3973444518933901E-2</v>
+        <v>3.2402194935587797E-2</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>44049.833333333336</v>
+        <v>44049.333333333336</v>
       </c>
       <c r="B337">
-        <v>1.50941214018374E-2</v>
+        <v>3.1459910910490697E-2</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>44049.840277777781</v>
+        <v>44049.340277777781</v>
       </c>
       <c r="B338">
-        <v>1.37759765537925E-2</v>
+        <v>2.9060457874272999E-2</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>44049.847222222219</v>
+        <v>44049.347222222219</v>
       </c>
       <c r="B339">
-        <v>1.83343576932203E-2</v>
+        <v>1.9460020279879801E-2</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>44049.854166666664</v>
+        <v>44049.354166666664</v>
       </c>
       <c r="B340">
-        <v>1.75807035835585E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>44049.861111111109</v>
+        <v>44049.361111111109</v>
       </c>
       <c r="B341">
-        <v>3.3819371040104601E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>44049.868055555555</v>
+        <v>44049.368055555555</v>
       </c>
       <c r="B342">
-        <v>4.1051303013573598E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>44049.875</v>
+        <v>44049.375</v>
       </c>
       <c r="B343">
-        <v>2.15102023910482E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>44049.881944444445</v>
+        <v>44049.381944444445</v>
       </c>
       <c r="B344">
-        <v>2.2420250304434401E-2</v>
+        <v>3.1576117591166401E-2</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>44049.888888888891</v>
+        <v>44049.388888888891</v>
       </c>
       <c r="B345">
-        <v>2.3713685745158398E-2</v>
+        <v>3.20996261607338E-2</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>44049.895833333336</v>
+        <v>44049.395833333336</v>
       </c>
       <c r="B346">
-        <v>2.6920789733119701E-2</v>
+        <v>2.5472101799394398E-2</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>44049.902777777781</v>
+        <v>44049.402777777781</v>
       </c>
       <c r="B347">
-        <v>3.54781559025341E-2</v>
+        <v>3.4375202364213403E-2</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>44049.909722222219</v>
+        <v>44049.409722222219</v>
       </c>
       <c r="B348">
-        <v>2.4470781853605499E-2</v>
+        <v>2.92357333000191E-2</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>44049.916666666664</v>
+        <v>44049.416666666664</v>
       </c>
       <c r="B349">
-        <v>1.7458879757346401E-2</v>
+        <v>2.731680058186E-2</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>44049.923611111109</v>
+        <v>44049.423611111109</v>
       </c>
       <c r="B350">
-        <v>1.84315648832118E-2</v>
+        <v>2.89335280006515E-2</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>44049.930555555555</v>
+        <v>44049.430555555555</v>
       </c>
       <c r="B351">
-        <v>1.9725485506449199E-2</v>
+        <v>2.99317410166033E-2</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>44049.9375</v>
+        <v>44049.4375</v>
       </c>
       <c r="B352">
-        <v>1.7671862247660101E-2</v>
+        <v>4.0867098742649197E-2</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>44049.944444444445</v>
+        <v>44049.444444444445</v>
       </c>
       <c r="B353">
-        <v>3.8664670385370803E-2</v>
+        <v>4.1115197850694903E-2</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>44049.951388888891</v>
+        <v>44049.451388888891</v>
       </c>
       <c r="B354">
-        <v>5.7671559785043597E-2</v>
+        <v>3.03643482148898E-2</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>44049.958333333336</v>
+        <v>44049.458333333336</v>
       </c>
       <c r="B355">
-        <v>5.2986042116485901E-2</v>
+        <v>4.1218988056653201E-2</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>44049.965277777781</v>
+        <v>44049.465277777781</v>
       </c>
       <c r="B356">
-        <v>5.68821031131082E-2</v>
+        <v>4.6490018399800402E-2</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>44049.972222222219</v>
+        <v>44049.472222222219</v>
       </c>
       <c r="B357">
-        <v>5.8042312298219503E-2</v>
+        <v>4.1367726908661598E-2</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>44049.979166666664</v>
+        <v>44049.479166666664</v>
       </c>
       <c r="B358">
-        <v>5.9607160932413701E-2</v>
+        <v>4.5881335809728301E-2</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>44049.986111111109</v>
+        <v>44049.486111111109</v>
       </c>
       <c r="B359">
-        <v>6.0648176667029097E-2</v>
+        <v>2.3787128477405401E-2</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>44049.993055555555</v>
+        <v>44049.493055555555</v>
       </c>
       <c r="B360">
-        <v>5.90151857440512E-2</v>
+        <v>3.8436736262206103E-2</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
+        <v>44049.5</v>
+      </c>
+      <c r="B361">
+        <v>4.1166405931858302E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>44049.506944444445</v>
+      </c>
+      <c r="B362">
+        <v>4.84259365650586E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>44049.513888888891</v>
+      </c>
+      <c r="B363">
+        <v>5.9898095130806801E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>44049.520833333336</v>
+      </c>
+      <c r="B364">
+        <v>5.4424796776800198E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>44049.527777777781</v>
+      </c>
+      <c r="B365">
+        <v>6.0799711128950502E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>44049.534722222219</v>
+      </c>
+      <c r="B366">
+        <v>6.1787389968461198E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>44049.541666666664</v>
+      </c>
+      <c r="B367">
+        <v>7.6824941966436605E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>44049.548611111109</v>
+      </c>
+      <c r="B368">
+        <v>8.1315345211924503E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>44049.555555555555</v>
+      </c>
+      <c r="B369">
+        <v>5.8791177247034303E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>44049.5625</v>
+      </c>
+      <c r="B370">
+        <v>6.6435447887989593E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>44049.569444444445</v>
+      </c>
+      <c r="B371">
+        <v>6.1775160263462199E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>44049.576388888891</v>
+      </c>
+      <c r="B372">
+        <v>6.3916525474793803E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>44049.583333333336</v>
+      </c>
+      <c r="B373">
+        <v>8.2570756646839702E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>44049.590277777781</v>
+      </c>
+      <c r="B374">
+        <v>8.2143539016944503E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>44049.597222222219</v>
+      </c>
+      <c r="B375">
+        <v>6.7559832774007803E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>44049.604166666664</v>
+      </c>
+      <c r="B376">
+        <v>5.9189651340471001E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>44049.611111111109</v>
+      </c>
+      <c r="B377">
+        <v>4.6119574605076999E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>44049.618055555555</v>
+      </c>
+      <c r="B378">
+        <v>5.9806639843856702E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>44049.625</v>
+      </c>
+      <c r="B379">
+        <v>8.7936239964236607E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>44049.631944444445</v>
+      </c>
+      <c r="B380">
+        <v>8.2143539016944503E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>44049.638888888891</v>
+      </c>
+      <c r="B381">
+        <v>6.7559832774007803E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>44049.645833333336</v>
+      </c>
+      <c r="B382">
+        <v>5.9189651340471001E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>44049.652777777781</v>
+      </c>
+      <c r="B383">
+        <v>4.6119574605076999E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>44049.659722222219</v>
+      </c>
+      <c r="B384">
+        <v>5.9806639843856702E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>44049.666666666664</v>
+      </c>
+      <c r="B385">
+        <v>8.7936239964236607E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>44049.673611111109</v>
+      </c>
+      <c r="B386">
+        <v>8.1210530455485402E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>44049.680555555555</v>
+      </c>
+      <c r="B387">
+        <v>8.6711719587149294E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>44049.6875</v>
+      </c>
+      <c r="B388">
+        <v>8.8987806268515504E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>44049.694444444445</v>
+      </c>
+      <c r="B389">
+        <v>9.3783787996095505E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>44049.701388888891</v>
+      </c>
+      <c r="B390">
+        <v>9.49601108192627E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>44049.708333333336</v>
+      </c>
+      <c r="B391">
+        <v>8.8140858772864095E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>44049.715277777781</v>
+      </c>
+      <c r="B392">
+        <v>8.6044330804161295E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>44049.722222222219</v>
+      </c>
+      <c r="B393">
+        <v>8.2825242246876193E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>44049.729166666664</v>
+      </c>
+      <c r="B394">
+        <v>7.3350048045716404E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>44049.736111111109</v>
+      </c>
+      <c r="B395">
+        <v>7.5650143610706502E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>44049.743055555555</v>
+      </c>
+      <c r="B396">
+        <v>7.8625648551282207E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>44049.75</v>
+      </c>
+      <c r="B397">
+        <v>6.8820797640296999E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>44049.756944444445</v>
+      </c>
+      <c r="B398">
+        <v>7.1614267436934803E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>44049.763888888891</v>
+      </c>
+      <c r="B399">
+        <v>3.9443132297073399E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>44049.770833333336</v>
+      </c>
+      <c r="B400">
+        <v>4.1010191908427099E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>44049.777777777781</v>
+      </c>
+      <c r="B401">
+        <v>2.7539577244304302E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>44049.784722222219</v>
+      </c>
+      <c r="B402">
+        <v>2.0139060618561098E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>44049.791666666664</v>
+      </c>
+      <c r="B403">
+        <v>1.4773593006704999E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>44049.798611111109</v>
+      </c>
+      <c r="B404">
+        <v>1.47720965575608E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>44049.805555555555</v>
+      </c>
+      <c r="B405">
+        <v>1.46354640166935E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>44049.8125</v>
+      </c>
+      <c r="B406">
+        <v>1.54090440819609E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>44049.819444444445</v>
+      </c>
+      <c r="B407">
+        <v>1.47831105548758E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>44049.826388888891</v>
+      </c>
+      <c r="B408">
+        <v>1.3973444518933901E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>44049.833333333336</v>
+      </c>
+      <c r="B409">
+        <v>1.50941214018374E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>44049.840277777781</v>
+      </c>
+      <c r="B410">
+        <v>1.37759765537925E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>44049.847222222219</v>
+      </c>
+      <c r="B411">
+        <v>1.83343576932203E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>44049.854166666664</v>
+      </c>
+      <c r="B412">
+        <v>1.75807035835585E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>44049.861111111109</v>
+      </c>
+      <c r="B413">
+        <v>3.3819371040104601E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>44049.868055555555</v>
+      </c>
+      <c r="B414">
+        <v>4.1051303013573598E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>44049.875</v>
+      </c>
+      <c r="B415">
+        <v>2.15102023910482E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>44049.881944444445</v>
+      </c>
+      <c r="B416">
+        <v>2.2420250304434401E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>44049.888888888891</v>
+      </c>
+      <c r="B417">
+        <v>2.3713685745158398E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>44049.895833333336</v>
+      </c>
+      <c r="B418">
+        <v>2.6920789733119701E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>44049.902777777781</v>
+      </c>
+      <c r="B419">
+        <v>3.54781559025341E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>44049.909722222219</v>
+      </c>
+      <c r="B420">
+        <v>2.4470781853605499E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>44049.916666666664</v>
+      </c>
+      <c r="B421">
+        <v>1.7458879757346401E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>44049.923611111109</v>
+      </c>
+      <c r="B422">
+        <v>1.84315648832118E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>44049.930555555555</v>
+      </c>
+      <c r="B423">
+        <v>1.9725485506449199E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>44049.9375</v>
+      </c>
+      <c r="B424">
+        <v>1.7671862247660101E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>44049.944444444445</v>
+      </c>
+      <c r="B425">
+        <v>3.8664670385370803E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>44049.951388888891</v>
+      </c>
+      <c r="B426">
+        <v>5.7671559785043597E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>44049.958333333336</v>
+      </c>
+      <c r="B427">
+        <v>5.2986042116485901E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>44049.965277777781</v>
+      </c>
+      <c r="B428">
+        <v>5.68821031131082E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>44049.972222222219</v>
+      </c>
+      <c r="B429">
+        <v>5.8042312298219503E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>44049.979166666664</v>
+      </c>
+      <c r="B430">
+        <v>5.9607160932413701E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>44049.986111111109</v>
+      </c>
+      <c r="B431">
+        <v>6.0648176667029097E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>44049.993055555555</v>
+      </c>
+      <c r="B432">
+        <v>5.90151857440512E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
         <v>44050</v>
       </c>
-      <c r="B361">
+      <c r="B433">
         <v>6.1357142528029603E-2</v>
       </c>
     </row>
